--- a/To Be Modeled/Dollar Tree.xlsx
+++ b/To Be Modeled/Dollar Tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0260E70B-280D-AC4E-972A-B08CD8C75140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90199BB-5965-814D-879A-B7429A0818A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2315,9 +2315,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2326,19 +2324,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2349,22 +2351,12 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.8190000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2492,11 +2484,9 @@
     <v>Powered by Refinitiv</v>
     <v>175.68</v>
     <v>128.85</v>
-    <v>0.67959999999999998</v>
-    <v>-0.73</v>
-    <v>-5.0600000000000003E-3</v>
-    <v>0.45</v>
-    <v>3.1350000000000002E-3</v>
+    <v>0.67849999999999999</v>
+    <v>1.6850000000000001</v>
+    <v>1.1629E-2</v>
     <v>USD</v>
     <v>Dollar Tree, Inc. is an operator of discount variety stores. Its business segments include Dollar Tree and Family Dollar. Dollar Tree segment is the operator of discount variety stores offering merchandise predominantly at the fixed price. Its stores are operating under the brand names Dollar Tree and Dollar Tree Canada. It operates 15 distribution centers in the United States and two in Canada. Dollar Tree stores consists of consumable merchandise, variety merchandise, and seasonal goods. Family Dollar segment operates general merchandise retail discount stores providing customers with a selection of merchandise in convenient neighborhood stores. Family Dollar segment consists of its store operations under the Family Dollar brand and 10 distribution centers. Family Dollar stores consists of consumable merchandise, home products, apparel and accessories merchandise, and seasonal and electronics merchandise. It also owns trademarks, including Family Dollar and Family Dollar Stores.</v>
     <v>65025</v>
@@ -2504,25 +2494,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>N/A, 500 Volvo Parkway, CHESAPEAKE, VA, 23320 US</v>
-    <v>145.18</v>
+    <v>146.76</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45114.93937836797</v>
+    <v>45118.753020392971</v>
     <v>0</v>
-    <v>143.28</v>
-    <v>31634120316</v>
+    <v>144.91</v>
+    <v>32305193859</v>
     <v>DOLLAR TREE, INC.</v>
     <v>DOLLAR TREE, INC.</v>
-    <v>144.47</v>
-    <v>23.337</v>
-    <v>144.27000000000001</v>
-    <v>143.54</v>
-    <v>143.99</v>
+    <v>145.34</v>
+    <v>23.4389</v>
+    <v>144.9</v>
+    <v>146.58500000000001</v>
     <v>220385400</v>
     <v>DLTR</v>
     <v>DOLLAR TREE, INC. (XNAS:DLTR)</v>
-    <v>1378860</v>
-    <v>2533620</v>
+    <v>722973</v>
+    <v>2241777</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2554,8 +2543,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2576,7 +2563,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2593,7 +2579,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2604,16 +2590,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2679,19 +2662,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2736,9 +2713,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2746,9 +2720,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3110,10 +3081,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE11" sqref="AE11"/>
+      <selection pane="bottomRight" activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4869,15 +4840,15 @@
       </c>
       <c r="AK16" s="38">
         <f>AL101/AD3</f>
-        <v>1.1165627306515318</v>
+        <v>1.1402490446743401</v>
       </c>
       <c r="AL16" s="38">
         <f>AL101/AD28</f>
-        <v>19.582840359044198</v>
+        <v>19.998262881639221</v>
       </c>
       <c r="AM16" s="39">
         <f>AL101/AD107</f>
-        <v>86.432022721311469</v>
+        <v>88.26555699180328</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -5188,15 +5159,15 @@
       </c>
       <c r="AK19" s="38">
         <f>AL101/AE3</f>
-        <v>1.0401170617478792</v>
+        <v>1.0621816880055237</v>
       </c>
       <c r="AL19" s="38">
         <f>AL101/AE28</f>
-        <v>23.802949823927765</v>
+        <v>24.30789605643341</v>
       </c>
       <c r="AM19" s="39">
         <f>AL101/AE106</f>
-        <v>392.12286878052407</v>
+        <v>400.44120607630714</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5552,7 +5523,7 @@
       </c>
       <c r="AM22" s="44">
         <f>AD107/AL101</f>
-        <v>1.1569785925574906E-2</v>
+        <v>1.1329447568011883E-2</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12431,7 +12402,7 @@
       </c>
       <c r="AL94" s="50">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8190000000000002E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -12530,7 +12501,7 @@
       </c>
       <c r="AL95" s="52" cm="1">
         <f t="array" ref="AL95">_FV(A1,"Beta")</f>
-        <v>0.67959999999999998</v>
+        <v>0.67849999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -12727,7 +12698,7 @@
       </c>
       <c r="AL97" s="49">
         <f>(AL94)+((AL95)*(AL96-AL94))</f>
-        <v>6.9322476000000008E-2</v>
+        <v>7.0008319999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -13021,7 +12992,7 @@
       </c>
       <c r="AL100" s="49">
         <f>AL99/AL103</f>
-        <v>0.24248921408191279</v>
+        <v>0.23865415398334641</v>
       </c>
     </row>
     <row r="101" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13120,7 +13091,7 @@
       </c>
       <c r="AL101" s="53" cm="1">
         <f t="array" ref="AL101">_FV(A1,"Market cap",TRUE)</f>
-        <v>31634120316</v>
+        <v>32305193859</v>
       </c>
     </row>
     <row r="102" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13219,7 +13190,7 @@
       </c>
       <c r="AL102" s="49">
         <f>AL101/AL103</f>
-        <v>0.75751078591808718</v>
+        <v>0.76134584601665356</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13318,7 +13289,7 @@
       </c>
       <c r="AL103" s="54">
         <f>AL99+AL101</f>
-        <v>41760620316</v>
+        <v>42431693859</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13565,7 +13536,7 @@
       </c>
       <c r="AL105" s="33">
         <f>(AL100*AL92)+(AL102*AL97)</f>
-        <v>5.4808980047902967E-2</v>
+        <v>5.5560681043694257E-2</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13808,7 +13779,7 @@
       <c r="AH107" s="28"/>
       <c r="AI107" s="55">
         <f>AI106*(1+AL107)/(AL108-AL107)</f>
-        <v>57011343469.953934</v>
+        <v>55609035596.10482</v>
       </c>
       <c r="AJ107" s="56" t="s">
         <v>155</v>
@@ -13869,7 +13840,7 @@
       </c>
       <c r="AI108" s="55">
         <f>AI107+AI106</f>
-        <v>58669343469.953934</v>
+        <v>57267035596.10482</v>
       </c>
       <c r="AJ108" s="56" t="s">
         <v>153</v>
@@ -13879,7 +13850,7 @@
       </c>
       <c r="AL108" s="30">
         <f>AL105</f>
-        <v>5.4808980047902967E-2</v>
+        <v>5.5560681043694257E-2</v>
       </c>
     </row>
     <row r="109" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -13894,7 +13865,7 @@
       </c>
       <c r="AF110" s="53">
         <f>NPV(AL108,AE108,AF108,AG108,AH108,AI108)</f>
-        <v>47100658764.271431</v>
+        <v>45865845421.397667</v>
       </c>
     </row>
     <row r="111" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13921,7 +13892,7 @@
       </c>
       <c r="AF113" s="53">
         <f>AF110+AF111-AF112</f>
-        <v>37616958764.271431</v>
+        <v>36382145421.397667</v>
       </c>
     </row>
     <row r="114" spans="31:32" ht="20" x14ac:dyDescent="0.25">
@@ -13939,7 +13910,7 @@
       </c>
       <c r="AF115" s="62">
         <f>AF113/AF114</f>
-        <v>169.77136014766384</v>
+        <v>164.19844974674982</v>
       </c>
     </row>
     <row r="116" spans="31:32" ht="20" x14ac:dyDescent="0.25">
@@ -13948,7 +13919,7 @@
       </c>
       <c r="AF116" s="63" cm="1">
         <f t="array" ref="AF116">_FV(A1,"Price")</f>
-        <v>143.54</v>
+        <v>146.58500000000001</v>
       </c>
     </row>
     <row r="117" spans="31:32" ht="20" x14ac:dyDescent="0.25">
@@ -13957,7 +13928,7 @@
       </c>
       <c r="AF117" s="64">
         <f>AF115/AF116-1</f>
-        <v>0.18274599517670231</v>
+        <v>0.12015860931711853</v>
       </c>
     </row>
     <row r="118" spans="31:32" ht="20" x14ac:dyDescent="0.25">

--- a/To Be Modeled/Dollar Tree.xlsx
+++ b/To Be Modeled/Dollar Tree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90199BB-5965-814D-879A-B7429A0818A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370AEFD4-0E10-714C-B5B4-752EED779004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
   </si>
 </sst>
 </file>
@@ -880,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -928,7 +931,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -936,7 +938,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -980,7 +981,6 @@
     <xf numFmtId="39" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1003,6 +1003,27 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1015,6 +1036,7 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,9 +1126,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.0086378737541523E-2"/>
-          <c:y val="0.13041015706370038"/>
+          <c:y val="0.16910837332668507"/>
           <c:w val="0.85675747508305655"/>
-          <c:h val="0.70062096404616092"/>
+          <c:h val="0.61618820074931269"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2279,8 +2301,8 @@
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2324,20 +2346,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>4.2480000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2357,6 +2382,9 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2482,11 +2510,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>175.68</v>
-    <v>128.85</v>
-    <v>0.67849999999999999</v>
-    <v>1.6850000000000001</v>
-    <v>1.1629E-2</v>
+    <v>170.36</v>
+    <v>111.73009999999999</v>
+    <v>0.73870000000000002</v>
+    <v>-1</v>
+    <v>-8.8229999999999992E-3</v>
     <v>USD</v>
     <v>Dollar Tree, Inc. is an operator of discount variety stores. Its business segments include Dollar Tree and Family Dollar. Dollar Tree segment is the operator of discount variety stores offering merchandise predominantly at the fixed price. Its stores are operating under the brand names Dollar Tree and Dollar Tree Canada. It operates 15 distribution centers in the United States and two in Canada. Dollar Tree stores consists of consumable merchandise, variety merchandise, and seasonal goods. Family Dollar segment operates general merchandise retail discount stores providing customers with a selection of merchandise in convenient neighborhood stores. Family Dollar segment consists of its store operations under the Family Dollar brand and 10 distribution centers. Family Dollar stores consists of consumable merchandise, home products, apparel and accessories merchandise, and seasonal and electronics merchandise. It also owns trademarks, including Family Dollar and Family Dollar Stores.</v>
     <v>65025</v>
@@ -2494,24 +2522,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>N/A, 500 Volvo Parkway, CHESAPEAKE, VA, 23320 US</v>
-    <v>146.76</v>
+    <v>113.4799</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45118.753020392971</v>
+    <v>45184.822182846874</v>
     <v>0</v>
-    <v>144.91</v>
-    <v>32305193859</v>
+    <v>111.73009999999999</v>
+    <v>24715417870</v>
     <v>DOLLAR TREE, INC.</v>
     <v>DOLLAR TREE, INC.</v>
-    <v>145.34</v>
-    <v>23.4389</v>
-    <v>144.9</v>
-    <v>146.58500000000001</v>
-    <v>220385400</v>
+    <v>113.45</v>
+    <v>20.639900000000001</v>
+    <v>113.34</v>
+    <v>112.34</v>
+    <v>220005500</v>
     <v>DLTR</v>
     <v>DOLLAR TREE, INC. (XNAS:DLTR)</v>
-    <v>722973</v>
-    <v>2241777</v>
+    <v>1421637</v>
+    <v>2623943</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -3081,10 +3109,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG12" sqref="AG12"/>
+      <selection pane="bottomRight" activeCell="AH97" sqref="AH97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3185,19 +3213,19 @@
       <c r="AD1" s="8">
         <v>2023</v>
       </c>
-      <c r="AE1" s="35">
+      <c r="AE1" s="33">
         <v>2024</v>
       </c>
-      <c r="AF1" s="35">
+      <c r="AF1" s="33">
         <v>2025</v>
       </c>
-      <c r="AG1" s="35">
+      <c r="AG1" s="33">
         <v>2026</v>
       </c>
-      <c r="AH1" s="35">
+      <c r="AH1" s="33">
         <v>2027</v>
       </c>
-      <c r="AI1" s="35">
+      <c r="AI1" s="33">
         <v>2028</v>
       </c>
     </row>
@@ -3395,20 +3423,20 @@
       <c r="AD3" s="1">
         <v>28331700000</v>
       </c>
-      <c r="AE3" s="36">
-        <v>30414000000</v>
-      </c>
-      <c r="AF3" s="36">
-        <v>31687000000</v>
-      </c>
-      <c r="AG3" s="36">
-        <v>33531000000</v>
-      </c>
-      <c r="AH3" s="36">
-        <v>35066000000</v>
-      </c>
-      <c r="AI3" s="36">
-        <v>36717000000</v>
+      <c r="AE3" s="34">
+        <v>30794000000</v>
+      </c>
+      <c r="AF3" s="34">
+        <v>32103000000</v>
+      </c>
+      <c r="AG3" s="34">
+        <v>34150000000</v>
+      </c>
+      <c r="AH3" s="34">
+        <v>36626000000</v>
+      </c>
+      <c r="AI3" s="34">
+        <v>38973000000</v>
       </c>
       <c r="AJ3" s="20" t="s">
         <v>113</v>
@@ -3542,23 +3570,23 @@
       </c>
       <c r="AE4" s="17">
         <f t="shared" si="3"/>
-        <v>7.3497178072618352E-2</v>
+        <v>8.6909715971861923E-2</v>
       </c>
       <c r="AF4" s="17">
         <f t="shared" si="3"/>
-        <v>4.1855724337476197E-2</v>
+        <v>4.2508280833928769E-2</v>
       </c>
       <c r="AG4" s="17">
         <f t="shared" si="3"/>
-        <v>5.819421213746967E-2</v>
+        <v>6.3763511198330347E-2</v>
       </c>
       <c r="AH4" s="17">
         <f t="shared" si="3"/>
-        <v>4.5778533297545554E-2</v>
+        <v>7.250366032210831E-2</v>
       </c>
       <c r="AI4" s="17">
         <f t="shared" si="3"/>
-        <v>4.7082644156732911E-2</v>
+        <v>6.4080161633812027E-2</v>
       </c>
       <c r="AJ4" s="18">
         <f>(AD4+AC4+AB4)/3</f>
@@ -4834,21 +4862,21 @@
       <c r="AD16" s="1">
         <v>26095400000</v>
       </c>
-      <c r="AJ16" s="37">
+      <c r="AJ16" s="35">
         <f>(AD35+AC35+AB35+AA35+Z35)/5</f>
         <v>-6.9069872408577624E-3</v>
       </c>
-      <c r="AK16" s="38">
+      <c r="AK16" s="36">
         <f>AL101/AD3</f>
-        <v>1.1402490446743401</v>
-      </c>
-      <c r="AL16" s="38">
+        <v>0.8723591549395201</v>
+      </c>
+      <c r="AL16" s="36">
         <f>AL101/AD28</f>
-        <v>19.998262881639221</v>
-      </c>
-      <c r="AM16" s="39">
+        <v>15.299874873096448</v>
+      </c>
+      <c r="AM16" s="37">
         <f>AL101/AD107</f>
-        <v>88.26555699180328</v>
+        <v>67.528464125683058</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -5138,36 +5166,36 @@
       <c r="AD19" s="10">
         <v>3003800000</v>
       </c>
-      <c r="AE19" s="40">
-        <v>2703000000</v>
-      </c>
-      <c r="AF19" s="40">
-        <v>3087000000</v>
-      </c>
-      <c r="AG19" s="40">
-        <v>3575000000</v>
-      </c>
-      <c r="AH19" s="40">
-        <v>3912000000</v>
-      </c>
-      <c r="AI19" s="40">
-        <v>4014000000</v>
-      </c>
-      <c r="AJ19" s="41">
+      <c r="AE19" s="38">
+        <v>2685000000</v>
+      </c>
+      <c r="AF19" s="38">
+        <v>3062000000</v>
+      </c>
+      <c r="AG19" s="38">
+        <v>3540000000</v>
+      </c>
+      <c r="AH19" s="38">
+        <v>4017000000</v>
+      </c>
+      <c r="AI19" s="38">
+        <v>4313000000</v>
+      </c>
+      <c r="AJ19" s="39">
         <f>AD40-AD56-AD61</f>
         <v>-9483700000</v>
       </c>
-      <c r="AK19" s="38">
+      <c r="AK19" s="36">
         <f>AL101/AE3</f>
-        <v>1.0621816880055237</v>
-      </c>
-      <c r="AL19" s="38">
+        <v>0.80260498376307077</v>
+      </c>
+      <c r="AL19" s="36">
         <f>AL101/AE28</f>
-        <v>24.30789605643341</v>
-      </c>
-      <c r="AM19" s="39">
+        <v>18.737996868840032</v>
+      </c>
+      <c r="AM19" s="37">
         <f>AL101/AE106</f>
-        <v>400.44120607630714</v>
+        <v>748.95205666666664</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5289,23 +5317,23 @@
       </c>
       <c r="AE20" s="17">
         <f t="shared" si="10"/>
-        <v>-0.10013982289100476</v>
+        <v>-0.10613223250549308</v>
       </c>
       <c r="AF20" s="17">
         <f t="shared" si="10"/>
-        <v>0.142064372918979</v>
+        <v>0.14040968342644322</v>
       </c>
       <c r="AG20" s="17">
         <f t="shared" si="10"/>
-        <v>0.15808228053126006</v>
+        <v>0.15610711952971923</v>
       </c>
       <c r="AH20" s="17">
         <f t="shared" si="10"/>
-        <v>9.4265734265734258E-2</v>
+        <v>0.13474576271186445</v>
       </c>
       <c r="AI20" s="17">
         <f t="shared" si="10"/>
-        <v>2.6073619631901801E-2</v>
+        <v>7.3686830968384465E-2</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -5399,25 +5427,25 @@
       <c r="AD21" s="2">
         <v>0.106</v>
       </c>
-      <c r="AE21" s="42">
+      <c r="AE21" s="40">
         <f>AE19/AE3</f>
-        <v>8.8873545077924637E-2</v>
-      </c>
-      <c r="AF21" s="42">
+        <v>8.7192310190296815E-2</v>
+      </c>
+      <c r="AF21" s="40">
         <f t="shared" ref="AF21:AI21" si="11">AF19/AF3</f>
-        <v>9.7421655568529678E-2</v>
-      </c>
-      <c r="AG21" s="42">
+        <v>9.5380494034825403E-2</v>
+      </c>
+      <c r="AG21" s="40">
         <f t="shared" si="11"/>
-        <v>0.10661775670275268</v>
-      </c>
-      <c r="AH21" s="42">
+        <v>0.10366032210834554</v>
+      </c>
+      <c r="AH21" s="40">
         <f t="shared" si="11"/>
-        <v>0.11156105629384588</v>
-      </c>
-      <c r="AI21" s="42">
+        <v>0.10967618631573199</v>
+      </c>
+      <c r="AI21" s="40">
         <f t="shared" si="11"/>
-        <v>0.10932265707982679</v>
+        <v>0.11066635876119364</v>
       </c>
       <c r="AL21" s="20" t="s">
         <v>133</v>
@@ -5517,13 +5545,13 @@
       <c r="AD22" s="10">
         <v>2236300000</v>
       </c>
-      <c r="AL22" s="43">
+      <c r="AL22" s="41">
         <f>(-1*AD98)/AL101</f>
         <v>0</v>
       </c>
-      <c r="AM22" s="44">
+      <c r="AM22" s="42">
         <f>AD107/AL101</f>
-        <v>1.1329447568011883E-2</v>
+        <v>1.48085701777374E-2</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -6077,20 +6105,20 @@
       <c r="AD28" s="11">
         <v>1615400000</v>
       </c>
-      <c r="AE28" s="45">
-        <v>1329000000</v>
-      </c>
-      <c r="AF28" s="45">
-        <v>1585000000</v>
-      </c>
-      <c r="AG28" s="45">
-        <v>1874000000</v>
-      </c>
-      <c r="AH28" s="45">
-        <v>2050000000</v>
-      </c>
-      <c r="AI28" s="45">
-        <v>2184000000</v>
+      <c r="AE28" s="43">
+        <v>1319000000</v>
+      </c>
+      <c r="AF28" s="43">
+        <v>1536000000</v>
+      </c>
+      <c r="AG28" s="43">
+        <v>1853000000</v>
+      </c>
+      <c r="AH28" s="43">
+        <v>2187000000</v>
+      </c>
+      <c r="AI28" s="43">
+        <v>2344000000</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6212,23 +6240,23 @@
       </c>
       <c r="AE29" s="17">
         <f t="shared" si="17"/>
-        <v>-0.17729354958524202</v>
+        <v>-0.18348396681936363</v>
       </c>
       <c r="AF29" s="17">
         <f t="shared" si="17"/>
-        <v>0.19262603461249062</v>
+        <v>0.16451857467778619</v>
       </c>
       <c r="AG29" s="17">
         <f t="shared" si="17"/>
-        <v>0.1823343848580441</v>
+        <v>0.20638020833333326</v>
       </c>
       <c r="AH29" s="17">
         <f t="shared" si="17"/>
-        <v>9.3916755602988289E-2</v>
+        <v>0.18024824608742573</v>
       </c>
       <c r="AI29" s="17">
         <f t="shared" si="17"/>
-        <v>6.5365853658536643E-2</v>
+        <v>7.178783721993609E-2</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -6322,25 +6350,25 @@
       <c r="AD30" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AE30" s="46">
+      <c r="AE30" s="44">
         <f>AE28/AE3</f>
-        <v>4.3696981653186036E-2</v>
-      </c>
-      <c r="AF30" s="46">
+        <v>4.2833019419367409E-2</v>
+      </c>
+      <c r="AF30" s="44">
         <f t="shared" ref="AF30:AI30" si="18">AF28/AF3</f>
-        <v>5.0020513144191626E-2</v>
-      </c>
-      <c r="AG30" s="46">
+        <v>4.7845995701336325E-2</v>
+      </c>
+      <c r="AG30" s="44">
         <f t="shared" si="18"/>
-        <v>5.5888580716352033E-2</v>
-      </c>
-      <c r="AH30" s="46">
+        <v>5.4260614934114201E-2</v>
+      </c>
+      <c r="AH30" s="44">
         <f t="shared" si="18"/>
-        <v>5.8461187475047055E-2</v>
-      </c>
-      <c r="AI30" s="46">
+        <v>5.9711680227161036E-2</v>
+      </c>
+      <c r="AI30" s="44">
         <f t="shared" si="18"/>
-        <v>5.94819838222077E-2</v>
+        <v>6.0144202396530934E-2</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -6434,20 +6462,20 @@
       <c r="AD31" s="12">
         <v>7.07</v>
       </c>
-      <c r="AE31" s="47">
-        <v>6.03</v>
-      </c>
-      <c r="AF31" s="47">
-        <v>7.19</v>
-      </c>
-      <c r="AG31" s="47">
-        <v>8.5</v>
-      </c>
-      <c r="AH31" s="47">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AI31" s="47">
-        <v>9.91</v>
+      <c r="AE31" s="45">
+        <v>6</v>
+      </c>
+      <c r="AF31" s="45">
+        <v>6.98</v>
+      </c>
+      <c r="AG31" s="45">
+        <v>8.42</v>
+      </c>
+      <c r="AH31" s="45">
+        <v>9.94</v>
+      </c>
+      <c r="AI31" s="45">
+        <v>10.65</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11288,10 +11316,10 @@
       <c r="AD83" s="1">
         <v>-1085400000</v>
       </c>
-      <c r="AK83" s="67" t="s">
+      <c r="AK83" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="AL83" s="68"/>
+      <c r="AL83" s="72"/>
     </row>
     <row r="84" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11384,10 +11412,10 @@
       <c r="AD84" s="1">
         <v>16800000</v>
       </c>
-      <c r="AK84" s="69" t="s">
+      <c r="AK84" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="AL84" s="69"/>
+      <c r="AL84" s="73"/>
     </row>
     <row r="85" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11777,10 +11805,10 @@
       <c r="AD88" s="1">
         <v>-1253800000</v>
       </c>
-      <c r="AK88" s="48" t="s">
+      <c r="AK88" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AL88" s="49">
+      <c r="AL88" s="47">
         <f>AL85/(AL86+AL87)</f>
         <v>1.2373475534488717E-2</v>
       </c>
@@ -12103,10 +12131,10 @@
       <c r="AD91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AK91" s="48" t="s">
+      <c r="AK91" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AL91" s="49">
+      <c r="AL91" s="47">
         <f>AL89/AL90</f>
         <v>0.23462522505448688</v>
       </c>
@@ -12202,10 +12230,10 @@
       <c r="AD92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AK92" s="48" t="s">
+      <c r="AK92" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="AL92" s="49">
+      <c r="AL92" s="47">
         <f>AL88*(1-AL91)</f>
         <v>9.470346052503114E-3</v>
       </c>
@@ -12301,10 +12329,10 @@
       <c r="AD93" s="1">
         <v>-1253800000</v>
       </c>
-      <c r="AK93" s="69" t="s">
+      <c r="AK93" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="AL93" s="69"/>
+      <c r="AL93" s="73"/>
     </row>
     <row r="94" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12400,9 +12428,9 @@
       <c r="AK94" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="AL94" s="50">
+      <c r="AL94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>4.2480000000000004E-2</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -12496,12 +12524,12 @@
       <c r="AD95" s="1">
         <v>-555000000</v>
       </c>
-      <c r="AK95" s="51" t="s">
+      <c r="AK95" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="AL95" s="52" cm="1">
+      <c r="AL95" s="50" cm="1">
         <f t="array" ref="AL95">_FV(A1,"Beta")</f>
-        <v>0.67849999999999999</v>
+        <v>0.73870000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -12598,7 +12626,7 @@
       <c r="AK96" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="AL96" s="50">
+      <c r="AL96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12693,12 +12721,12 @@
       <c r="AD97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AK97" s="48" t="s">
+      <c r="AK97" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="AL97" s="49">
+      <c r="AL97" s="47">
         <f>(AL94)+((AL95)*(AL96-AL94))</f>
-        <v>7.0008319999999999E-2</v>
+        <v>7.3150824000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12792,10 +12820,10 @@
       <c r="AD98" s="1">
         <v>0</v>
       </c>
-      <c r="AK98" s="69" t="s">
+      <c r="AK98" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="AL98" s="69"/>
+      <c r="AL98" s="73"/>
     </row>
     <row r="99" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12987,12 +13015,12 @@
       <c r="AD100" s="10">
         <v>-686800000</v>
       </c>
-      <c r="AK100" s="48" t="s">
+      <c r="AK100" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="AL100" s="49">
+      <c r="AL100" s="47">
         <f>AL99/AL103</f>
-        <v>0.23865415398334641</v>
+        <v>0.29064129126827543</v>
       </c>
     </row>
     <row r="101" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13086,12 +13114,12 @@
       <c r="AD101" s="1">
         <v>-1200000</v>
       </c>
-      <c r="AK101" s="51" t="s">
+      <c r="AK101" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="AL101" s="53" cm="1">
+      <c r="AL101" s="51" cm="1">
         <f t="array" ref="AL101">_FV(A1,"Market cap",TRUE)</f>
-        <v>32305193859</v>
+        <v>24715417870</v>
       </c>
     </row>
     <row r="102" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13185,12 +13213,12 @@
       <c r="AD102" s="10">
         <v>-326700000</v>
       </c>
-      <c r="AK102" s="48" t="s">
+      <c r="AK102" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="AL102" s="49">
+      <c r="AL102" s="47">
         <f>AL101/AL103</f>
-        <v>0.76134584601665356</v>
+        <v>0.70935870873172457</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13284,12 +13312,15 @@
       <c r="AD103" s="1">
         <v>1038000000</v>
       </c>
-      <c r="AK103" s="48" t="s">
+      <c r="AJ103" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK103" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="AL103" s="54">
+      <c r="AL103" s="52">
         <f>AL99+AL101</f>
-        <v>42431693859</v>
+        <v>34841917870</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13383,559 +13414,583 @@
       <c r="AD104" s="11">
         <v>711300000</v>
       </c>
-      <c r="AK104" s="69" t="s">
+      <c r="AE104" s="74">
+        <f>(AE106/AD105)-1</f>
+        <v>-0.85255193013147323</v>
+      </c>
+      <c r="AF104" s="74">
+        <f>(AF106/AE106)-1</f>
+        <v>4.0303030303030303</v>
+      </c>
+      <c r="AG104" s="74">
+        <f>(AG106/AF106)-1</f>
+        <v>1.9216867469879517</v>
+      </c>
+      <c r="AH104" s="74">
+        <f>(AH106/AG106)-1</f>
+        <v>1.3092783505154637</v>
+      </c>
+      <c r="AI104" s="74">
+        <f>(AI106/AH106)-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AJ104" s="74">
+        <f>SUM(AE104:AI104)/5</f>
+        <v>1.3417432395349944</v>
+      </c>
+      <c r="AK104" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="AL104" s="69"/>
+      <c r="AL104" s="73"/>
     </row>
     <row r="105" spans="1:38" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="65">
         <f t="shared" ref="B105:AC105" si="25">(B22*(1-$AL$91))+B77+B88+B81</f>
         <v>21712716.763005778</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="65">
         <f t="shared" si="25"/>
         <v>35675561.451719888</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="65">
         <f t="shared" si="25"/>
         <v>29184194.068037525</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="65">
         <f t="shared" si="25"/>
         <v>38917634.795792669</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="65">
         <f t="shared" si="25"/>
         <v>93238775.703591406</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105" s="65">
         <f t="shared" si="25"/>
         <v>51589259.07324931</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="65">
         <f t="shared" si="25"/>
         <v>89219128.494267017</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="65">
         <f t="shared" si="25"/>
         <v>79931728.228939623</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J105" s="65">
         <f t="shared" si="25"/>
         <v>-18151998.199564107</v>
       </c>
-      <c r="K105" s="1">
+      <c r="K105" s="65">
         <f t="shared" si="25"/>
         <v>23705737.799677849</v>
       </c>
-      <c r="L105" s="1">
+      <c r="L105" s="65">
         <f t="shared" si="25"/>
         <v>117558530.56003034</v>
       </c>
-      <c r="M105" s="1">
+      <c r="M105" s="65">
         <f t="shared" si="25"/>
         <v>281001985.88079214</v>
       </c>
-      <c r="N105" s="1">
+      <c r="N105" s="65">
         <f t="shared" si="25"/>
         <v>239378480.05306548</v>
       </c>
-      <c r="O105" s="1">
+      <c r="O105" s="65">
         <f t="shared" si="25"/>
         <v>250703288.16450298</v>
       </c>
-      <c r="P105" s="1">
+      <c r="P105" s="65">
         <f t="shared" si="25"/>
         <v>280674092.67506868</v>
       </c>
-      <c r="Q105" s="1" t="e">
+      <c r="Q105" s="65" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R105" s="1">
+      <c r="R105" s="65">
         <f t="shared" si="25"/>
         <v>379686108.21567321</v>
       </c>
-      <c r="S105" s="1">
+      <c r="S105" s="65">
         <f t="shared" si="25"/>
         <v>499999611.48488581</v>
       </c>
-      <c r="T105" s="1">
+      <c r="T105" s="65">
         <f t="shared" si="25"/>
         <v>478921330.42736661</v>
       </c>
-      <c r="U105" s="1">
+      <c r="U105" s="65">
         <f t="shared" si="25"/>
         <v>561243144.1296314</v>
       </c>
-      <c r="V105" s="1">
+      <c r="V105" s="65">
         <f t="shared" si="25"/>
         <v>775242840.8983227</v>
       </c>
-      <c r="W105" s="1">
+      <c r="W105" s="65">
         <f t="shared" si="25"/>
         <v>670713901.26030493</v>
       </c>
-      <c r="X105" s="1">
+      <c r="X105" s="65">
         <f t="shared" si="25"/>
         <v>1514210916.3271108</v>
       </c>
-      <c r="Y105" s="1">
+      <c r="Y105" s="65">
         <f t="shared" si="25"/>
         <v>1057060712.5935752</v>
       </c>
-      <c r="Z105" s="1">
+      <c r="Z105" s="65">
         <f t="shared" si="25"/>
         <v>-1136669601.0613096</v>
       </c>
-      <c r="AA105" s="1">
+      <c r="AA105" s="65">
         <f t="shared" si="25"/>
         <v>573756040.93622661</v>
       </c>
-      <c r="AB105" s="1">
+      <c r="AB105" s="65">
         <f t="shared" si="25"/>
         <v>1792051037.6196342</v>
       </c>
-      <c r="AC105" s="1">
+      <c r="AC105" s="65">
         <f t="shared" si="25"/>
         <v>350399867.33630252</v>
       </c>
-      <c r="AD105" s="1">
+      <c r="AD105" s="65">
         <f>(AD22*(1-$AL$91))+AD77+AD88+AD81</f>
         <v>223807609.21065092</v>
       </c>
-      <c r="AE105" s="31">
+      <c r="AE105" s="64">
         <f>AD105*(1+$AL$106)</f>
-        <v>235732449.792016</v>
-      </c>
-      <c r="AF105" s="31">
+        <v>238568407.23043457</v>
+      </c>
+      <c r="AF105" s="64">
         <f t="shared" ref="AF105:AI105" si="26">AE105*(1+$AL$106)</f>
-        <v>248292665.65571624</v>
-      </c>
-      <c r="AG105" s="31">
+        <v>254302725.13611171</v>
+      </c>
+      <c r="AG105" s="64">
         <f t="shared" si="26"/>
-        <v>261522110.65050104</v>
-      </c>
-      <c r="AH105" s="31">
+        <v>271074769.54896122</v>
+      </c>
+      <c r="AH105" s="64">
         <f t="shared" si="26"/>
-        <v>275456442.41432446</v>
-      </c>
-      <c r="AI105" s="31">
+        <v>288952981.71379226</v>
+      </c>
+      <c r="AI105" s="64">
         <f t="shared" si="26"/>
-        <v>290133218.48322529</v>
-      </c>
-      <c r="AJ105" s="28" t="s">
+        <v>308010316.78534955</v>
+      </c>
+      <c r="AJ105" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="AK105" s="32" t="s">
+      <c r="AK105" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="AL105" s="33">
+      <c r="AL105" s="31">
         <f>(AL100*AL92)+(AL102*AL97)</f>
-        <v>5.5560681043694257E-2</v>
+        <v>5.4642647660758568E-2</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="19">
+      <c r="B106" s="65"/>
+      <c r="C106" s="66">
         <f t="shared" ref="C106:AA106" si="27">(C107/B107)-1</f>
         <v>0.45512820512820507</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="66">
         <f t="shared" si="27"/>
         <v>-0.4625550660792952</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="66">
         <f t="shared" si="27"/>
         <v>0.24590163934426235</v>
       </c>
-      <c r="F106" s="19">
+      <c r="F106" s="66">
         <f t="shared" si="27"/>
         <v>3.7697368421052628</v>
       </c>
-      <c r="G106" s="19">
+      <c r="G106" s="66">
         <f t="shared" si="27"/>
         <v>-0.82601379310344825</v>
       </c>
-      <c r="H106" s="19">
+      <c r="H106" s="66">
         <f t="shared" si="27"/>
         <v>3.5314729665451088</v>
       </c>
-      <c r="I106" s="19">
+      <c r="I106" s="66">
         <f t="shared" si="27"/>
         <v>0.23775367389783075</v>
       </c>
-      <c r="J106" s="19">
+      <c r="J106" s="66">
         <f t="shared" si="27"/>
         <v>-1.5031802120141342</v>
       </c>
-      <c r="K106" s="19">
+      <c r="K106" s="66">
         <f t="shared" si="27"/>
         <v>-1.1957584269662922</v>
       </c>
-      <c r="L106" s="19">
+      <c r="L106" s="66">
         <f t="shared" si="27"/>
         <v>12.589754627636676</v>
       </c>
-      <c r="M106" s="19">
+      <c r="M106" s="66">
         <f t="shared" si="27"/>
         <v>1.3852407952949624</v>
       </c>
-      <c r="N106" s="19">
+      <c r="N106" s="66">
         <f t="shared" si="27"/>
         <v>-0.18813274959163162</v>
       </c>
-      <c r="O106" s="19">
+      <c r="O106" s="66">
         <f t="shared" si="27"/>
         <v>-6.3794983642311842E-2</v>
       </c>
-      <c r="P106" s="19">
+      <c r="P106" s="66">
         <f t="shared" si="27"/>
         <v>0.58299359347699475</v>
       </c>
-      <c r="Q106" s="19">
+      <c r="Q106" s="66">
         <f t="shared" si="27"/>
         <v>0.53127299484915369</v>
       </c>
-      <c r="R106" s="19">
+      <c r="R106" s="66">
         <f t="shared" si="27"/>
         <v>-0.18356559346468049</v>
       </c>
-      <c r="S106" s="19">
+      <c r="S106" s="66">
         <f t="shared" si="27"/>
         <v>0.28428487345497344</v>
       </c>
-      <c r="T106" s="19">
+      <c r="T106" s="66">
         <f t="shared" si="27"/>
         <v>-0.1624656278643446</v>
       </c>
-      <c r="U106" s="19">
+      <c r="U106" s="66">
         <f t="shared" si="27"/>
         <v>0.2667578659370724</v>
       </c>
-      <c r="V106" s="19">
+      <c r="V106" s="66">
         <f t="shared" si="27"/>
         <v>0.29848812095032407</v>
       </c>
-      <c r="W106" s="19">
+      <c r="W106" s="66">
         <f t="shared" si="27"/>
         <v>-0.50033266799733866</v>
       </c>
-      <c r="X106" s="19">
+      <c r="X106" s="66">
         <f t="shared" si="27"/>
         <v>2.687416777629827</v>
       </c>
-      <c r="Y106" s="19">
+      <c r="Y106" s="66">
         <f t="shared" si="27"/>
         <v>-0.20736661550961455</v>
       </c>
-      <c r="Z106" s="19">
+      <c r="Z106" s="66">
         <f t="shared" si="27"/>
         <v>8.0751708428246083E-2</v>
       </c>
-      <c r="AA106" s="19">
+      <c r="AA106" s="66">
         <f t="shared" si="27"/>
         <v>-0.12203604173253235</v>
       </c>
-      <c r="AB106" s="19">
+      <c r="AB106" s="66">
         <f t="shared" ref="AB106" si="28">(AB107/AA107)-1</f>
         <v>1.1816108510382906</v>
       </c>
-      <c r="AC106" s="19">
+      <c r="AC106" s="66">
         <f t="shared" ref="AC106" si="29">(AC107/AB107)-1</f>
         <v>-0.77441540577716639</v>
       </c>
-      <c r="AD106" s="19">
+      <c r="AD106" s="66">
         <f t="shared" ref="AD106" si="30">(AD107/AC107)-1</f>
         <v>-0.10731707317073169</v>
       </c>
-      <c r="AE106" s="27">
-        <v>80674000</v>
-      </c>
-      <c r="AF106" s="27">
-        <v>573800000</v>
-      </c>
-      <c r="AG106" s="27">
-        <v>541600000</v>
-      </c>
-      <c r="AH106" s="27">
-        <v>1382000000</v>
-      </c>
-      <c r="AI106" s="27">
-        <v>1658000000</v>
-      </c>
-      <c r="AJ106" s="28" t="s">
+      <c r="AE106" s="63">
+        <v>33000000</v>
+      </c>
+      <c r="AF106" s="63">
+        <v>166000000</v>
+      </c>
+      <c r="AG106" s="63">
+        <v>485000000</v>
+      </c>
+      <c r="AH106" s="63">
+        <v>1120000000</v>
+      </c>
+      <c r="AI106" s="63">
+        <v>1456000000</v>
+      </c>
+      <c r="AJ106" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="AK106" s="29" t="s">
+      <c r="AK106" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="AL106" s="30">
+      <c r="AL106" s="29">
         <f>(SUM(AE4:AI4)/5)</f>
-        <v>5.328165840036854E-2</v>
+        <v>6.5953065992008272E-2</v>
       </c>
     </row>
     <row r="107" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="65">
         <v>15600000</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="65">
         <v>22700000</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="65">
         <v>12200000</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="65">
         <v>15200000</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="65">
         <v>72500000</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G107" s="65">
         <v>12614000</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="65">
         <v>57160000</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="65">
         <v>70750000</v>
       </c>
-      <c r="J107" s="1">
+      <c r="J107" s="65">
         <v>-35600000</v>
       </c>
-      <c r="K107" s="1">
+      <c r="K107" s="65">
         <v>6969000</v>
       </c>
-      <c r="L107" s="1">
+      <c r="L107" s="65">
         <v>94707000</v>
       </c>
-      <c r="M107" s="1">
+      <c r="M107" s="65">
         <v>225899000</v>
       </c>
-      <c r="N107" s="1">
+      <c r="N107" s="65">
         <v>183400000</v>
       </c>
-      <c r="O107" s="1">
+      <c r="O107" s="65">
         <v>171700000</v>
       </c>
-      <c r="P107" s="1">
+      <c r="P107" s="65">
         <v>271800000</v>
       </c>
-      <c r="Q107" s="1">
+      <c r="Q107" s="65">
         <v>416200000</v>
       </c>
-      <c r="R107" s="1">
+      <c r="R107" s="65">
         <v>339800000</v>
       </c>
-      <c r="S107" s="1">
+      <c r="S107" s="65">
         <v>436400000</v>
       </c>
-      <c r="T107" s="1">
+      <c r="T107" s="65">
         <v>365500000</v>
       </c>
-      <c r="U107" s="1">
+      <c r="U107" s="65">
         <v>463000000</v>
       </c>
-      <c r="V107" s="1">
+      <c r="V107" s="65">
         <v>601200000</v>
       </c>
-      <c r="W107" s="1">
+      <c r="W107" s="65">
         <v>300400000</v>
       </c>
-      <c r="X107" s="1">
+      <c r="X107" s="65">
         <v>1107700000</v>
       </c>
-      <c r="Y107" s="1">
+      <c r="Y107" s="65">
         <v>878000000</v>
       </c>
-      <c r="Z107" s="1">
+      <c r="Z107" s="65">
         <v>948900000</v>
       </c>
-      <c r="AA107" s="1">
+      <c r="AA107" s="65">
         <v>833100000</v>
       </c>
-      <c r="AB107" s="1">
+      <c r="AB107" s="65">
         <v>1817500000</v>
       </c>
-      <c r="AC107" s="1">
+      <c r="AC107" s="65">
         <v>410000000</v>
       </c>
-      <c r="AD107" s="1">
+      <c r="AD107" s="65">
         <v>366000000</v>
       </c>
-      <c r="AE107" s="28"/>
-      <c r="AF107" s="28"/>
-      <c r="AG107" s="28"/>
-      <c r="AH107" s="28"/>
-      <c r="AI107" s="55">
+      <c r="AE107" s="67"/>
+      <c r="AF107" s="67"/>
+      <c r="AG107" s="67"/>
+      <c r="AH107" s="67"/>
+      <c r="AI107" s="68">
         <f>AI106*(1+AL107)/(AL108-AL107)</f>
-        <v>55609035596.10482</v>
-      </c>
-      <c r="AJ107" s="56" t="s">
+        <v>50346379887.504578</v>
+      </c>
+      <c r="AJ107" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="AK107" s="57" t="s">
+      <c r="AK107" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AL107" s="58">
+      <c r="AL107" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="13"/>
-      <c r="R108" s="13"/>
-      <c r="S108" s="13"/>
-      <c r="T108" s="13"/>
-      <c r="U108" s="13"/>
-      <c r="V108" s="13"/>
-      <c r="W108" s="13"/>
-      <c r="X108" s="13"/>
-      <c r="Y108" s="13"/>
-      <c r="Z108" s="13"/>
-      <c r="AA108" s="13"/>
-      <c r="AB108" s="13"/>
-      <c r="AC108" s="13"/>
-      <c r="AD108" s="13"/>
-      <c r="AE108" s="55">
+      <c r="B108" s="69"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="69"/>
+      <c r="F108" s="69"/>
+      <c r="G108" s="69"/>
+      <c r="H108" s="69"/>
+      <c r="I108" s="69"/>
+      <c r="J108" s="69"/>
+      <c r="K108" s="69"/>
+      <c r="L108" s="69"/>
+      <c r="M108" s="69"/>
+      <c r="N108" s="69"/>
+      <c r="O108" s="69"/>
+      <c r="P108" s="69"/>
+      <c r="Q108" s="69"/>
+      <c r="R108" s="69"/>
+      <c r="S108" s="69"/>
+      <c r="T108" s="69"/>
+      <c r="U108" s="69"/>
+      <c r="V108" s="69"/>
+      <c r="W108" s="69"/>
+      <c r="X108" s="69"/>
+      <c r="Y108" s="69"/>
+      <c r="Z108" s="69"/>
+      <c r="AA108" s="69"/>
+      <c r="AB108" s="69"/>
+      <c r="AC108" s="69"/>
+      <c r="AD108" s="69"/>
+      <c r="AE108" s="68">
         <f t="shared" ref="AE108:AH108" si="31">AE107+AE106</f>
-        <v>80674000</v>
-      </c>
-      <c r="AF108" s="55">
+        <v>33000000</v>
+      </c>
+      <c r="AF108" s="68">
         <f t="shared" si="31"/>
-        <v>573800000</v>
-      </c>
-      <c r="AG108" s="55">
+        <v>166000000</v>
+      </c>
+      <c r="AG108" s="68">
         <f t="shared" si="31"/>
-        <v>541600000</v>
-      </c>
-      <c r="AH108" s="55">
+        <v>485000000</v>
+      </c>
+      <c r="AH108" s="68">
         <f t="shared" si="31"/>
-        <v>1382000000</v>
-      </c>
-      <c r="AI108" s="55">
+        <v>1120000000</v>
+      </c>
+      <c r="AI108" s="68">
         <f>AI107+AI106</f>
-        <v>57267035596.10482</v>
-      </c>
-      <c r="AJ108" s="56" t="s">
+        <v>51802379887.504578</v>
+      </c>
+      <c r="AJ108" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="AK108" s="59" t="s">
+      <c r="AK108" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="AL108" s="30">
+      <c r="AL108" s="29">
         <f>AL105</f>
-        <v>5.5560681043694257E-2</v>
+        <v>5.4642647660758568E-2</v>
       </c>
     </row>
     <row r="109" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="AE109" s="66" t="s">
+      <c r="AE109" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="AF109" s="66"/>
+      <c r="AF109" s="70"/>
     </row>
     <row r="110" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE110" s="60" t="s">
+      <c r="AE110" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="AF110" s="53">
+      <c r="AF110" s="51">
         <f>NPV(AL108,AE108,AF108,AG108,AH108,AI108)</f>
-        <v>45865845421.397667</v>
+        <v>41202272155.712341</v>
       </c>
     </row>
     <row r="111" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE111" s="60" t="s">
+      <c r="AE111" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="AF111" s="53">
+      <c r="AF111" s="51">
         <f>AD40</f>
         <v>642800000</v>
       </c>
     </row>
     <row r="112" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE112" s="60" t="s">
+      <c r="AE112" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="AF112" s="53">
+      <c r="AF112" s="51">
         <f>AL99</f>
         <v>10126500000</v>
       </c>
     </row>
     <row r="113" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE113" s="60" t="s">
+      <c r="AE113" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="AF113" s="53">
+      <c r="AF113" s="51">
         <f>AF110+AF111-AF112</f>
-        <v>36382145421.397667</v>
+        <v>31718572155.712341</v>
       </c>
     </row>
     <row r="114" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE114" s="60" t="s">
+      <c r="AE114" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="AF114" s="60">
+      <c r="AF114" s="57">
         <f>AD34*(1+(AJ16*5))</f>
         <v>221574232.14111573</v>
       </c>
     </row>
     <row r="115" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE115" s="61" t="s">
+      <c r="AE115" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="AF115" s="62">
+      <c r="AF115" s="59">
         <f>AF113/AF114</f>
-        <v>164.19844974674982</v>
+        <v>143.15099661729386</v>
       </c>
     </row>
     <row r="116" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE116" s="60" t="s">
+      <c r="AE116" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="AF116" s="63" cm="1">
+      <c r="AF116" s="60" cm="1">
         <f t="array" ref="AF116">_FV(A1,"Price")</f>
-        <v>146.58500000000001</v>
+        <v>112.34</v>
       </c>
     </row>
     <row r="117" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE117" s="61" t="s">
+      <c r="AE117" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="AF117" s="64">
+      <c r="AF117" s="61">
         <f>AF115/AF116-1</f>
-        <v>0.12015860931711853</v>
+        <v>0.2742655921069419</v>
       </c>
     </row>
     <row r="118" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE118" s="61" t="s">
+      <c r="AE118" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="AF118" s="65" t="str">
+      <c r="AF118" s="62" t="str">
         <f>IF(AF115&gt;AF116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
